--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,69 @@
   </si>
   <si>
     <t>30/03/2028</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,21004</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Không bảo hành</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30002</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30003</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,10001</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1307,9 @@
       <c r="E6" s="39">
         <v>860157040235092</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>69</v>
       </c>
@@ -1304,7 +1369,9 @@
         <v>69</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="43" t="s">
         <v>72</v>
@@ -1353,16 +1420,30 @@
         <v>69</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="55"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
       <c r="U8" s="67"/>
@@ -1439,7 +1520,9 @@
         <v>868183035882203</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="H10" s="38"/>
       <c r="I10" s="40" t="s">
         <v>76</v>
@@ -1500,12 +1583,20 @@
         <v>74</v>
       </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
       <c r="U11" s="67"/>
@@ -1588,16 +1679,30 @@
       <c r="H13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
       <c r="U13" s="67"/>
@@ -1806,7 +1911,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2275,7 +2380,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2307,7 +2412,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2339,7 +2444,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2457,7 +2562,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -2947,7 +3052,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3169,22 +3274,44 @@
       <c r="E6" s="39">
         <v>866192037838156</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="H6" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="T6" s="44"/>
       <c r="U6" s="66" t="s">
         <v>18</v>
@@ -3209,19 +3336,37 @@
         <v>868345031030992</v>
       </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="P7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="T7" s="44"/>
       <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
@@ -3669,7 +3814,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3978,7 +4123,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4074,7 +4219,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4138,7 +4283,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4745,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4973,16 +5118,30 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>108</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
       <c r="U6" s="66" t="s">
@@ -5398,7 +5557,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5867,7 +6026,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5931,7 +6090,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,7 +751,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,19 +790,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1117,43 +1144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1198,58 +1225,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1301,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,7 +1327,9 @@
       <c r="B6" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44200</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1357,9 @@
         <v>38</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
       </c>
@@ -1340,7 +1371,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1355,7 +1386,9 @@
       <c r="B7" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44200</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1416,9 @@
         <v>38</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1430,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1408,7 +1443,9 @@
       <c r="B8" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44200</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1434,7 +1471,9 @@
         <v>38</v>
       </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P8" s="40" t="s">
         <v>65</v>
       </c>
@@ -1446,7 +1485,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1498,9 @@
       <c r="B9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44200</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1528,9 @@
         <v>38</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1499,58 +1542,60 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="71">
         <v>5</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="72">
+        <v>44200</v>
+      </c>
+      <c r="D10" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="74">
         <v>868183035882203</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="40" t="s">
+      <c r="H10" s="73"/>
+      <c r="I10" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40" t="s">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1" t="s">
+      <c r="N10" s="71"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="71"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1563,7 +1608,9 @@
       <c r="B11" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44200</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1587,7 +1634,9 @@
         <v>94</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>65</v>
       </c>
@@ -1599,7 +1648,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1612,7 +1661,9 @@
       <c r="B12" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44200</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -1638,7 +1689,9 @@
         <v>38</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1650,7 +1703,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1659,53 +1712,55 @@
       <c r="W12" s="57"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="71">
         <v>8</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="72">
+        <v>44200</v>
+      </c>
+      <c r="D13" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="74">
         <v>868183035907653</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40" t="s">
+      <c r="N13" s="71"/>
+      <c r="O13" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="4"/>
+      <c r="S13" s="71"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1734,7 +1789,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1763,7 +1818,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1847,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3023,13 +3078,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3041,6 +3089,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3051,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3084,43 +3139,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3165,58 +3220,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3241,23 +3296,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,7 +3322,9 @@
       <c r="B6" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44200</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>62</v>
       </c>
@@ -3299,7 +3356,9 @@
         <v>103</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
       </c>
@@ -3313,7 +3372,7 @@
         <v>105</v>
       </c>
       <c r="T6" s="44"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3328,7 +3387,9 @@
       <c r="B7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44200</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>62</v>
       </c>
@@ -3354,7 +3415,9 @@
         <v>106</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>65</v>
       </c>
@@ -3368,7 +3431,7 @@
         <v>105</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3397,7 +3460,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3426,7 +3489,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3455,7 +3518,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3484,7 +3547,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3513,7 +3576,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3544,7 +3607,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3573,7 +3636,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3602,7 +3665,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3631,7 +3694,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4862,13 +4925,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4880,6 +4936,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4890,8 +4953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4923,43 +4986,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5004,58 +5067,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
@@ -5080,23 +5143,23 @@
       <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5106,7 +5169,9 @@
       <c r="B6" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44200</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>64</v>
       </c>
@@ -5127,12 +5192,16 @@
       <c r="K6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
       </c>
@@ -5144,7 +5213,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5175,7 +5244,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5204,7 +5273,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5233,7 +5302,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5262,7 +5331,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5291,7 +5360,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5320,7 +5389,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5351,7 +5420,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5380,7 +5449,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5409,7 +5478,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5438,7 +5507,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6669,6 +6738,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6680,13 +6756,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6730,43 +6799,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6811,58 +6880,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6887,23 +6956,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6951,7 +7020,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7004,7 +7073,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7041,7 +7110,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7094,7 +7163,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7143,7 +7212,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7184,7 +7253,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7235,7 +7304,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7274,7 +7343,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7309,7 +7378,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7346,7 +7415,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7375,7 +7444,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8606,13 +8675,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8624,6 +8686,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Xuất bán ĐL anh Tuấn BG</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
   </si>
   <si>
     <t>LE.1.00.---06.191010</t>
@@ -751,22 +748,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,19 +787,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M13"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1228,49 +1225,49 @@
       <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
@@ -1301,7 +1298,7 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
@@ -1310,14 +1307,14 @@
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="37">
         <v>44200</v>
@@ -1337,28 +1334,28 @@
         <v>860157040235092</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>69</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
@@ -1371,7 +1368,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1384,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="37">
         <v>44200</v>
@@ -1396,28 +1393,28 @@
         <v>860157040196336</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>65</v>
@@ -1430,7 +1427,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="37">
         <v>44200</v>
@@ -1458,21 +1455,21 @@
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>65</v>
@@ -1485,7 +1482,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="37">
         <v>44200</v>
@@ -1513,23 +1510,23 @@
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="M9" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>65</v>
@@ -1542,60 +1539,60 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="58">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="72">
+      <c r="B10" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="59">
         <v>44200</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="61">
         <v>868183035882203</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="73" t="s">
+      <c r="H10" s="60"/>
+      <c r="I10" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73" t="s">
+      <c r="K10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="71" t="s">
+      <c r="N10" s="58"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="75" t="s">
+      <c r="Q10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="73" t="s">
+      <c r="R10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="71"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="37">
         <v>44200</v>
@@ -1623,19 +1620,19 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>65</v>
@@ -1648,7 +1645,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="37">
         <v>44200</v>
@@ -1676,21 +1673,21 @@
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>65</v>
@@ -1703,7 +1700,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1712,55 +1709,55 @@
       <c r="W12" s="57"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="58">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="72">
+      <c r="B13" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="59">
         <v>44200</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="61">
         <v>868183035907653</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="60"/>
+      <c r="M13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="71" t="s">
+      <c r="N13" s="58"/>
+      <c r="O13" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="75" t="s">
+      <c r="Q13" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="71" t="s">
+      <c r="R13" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="71"/>
+      <c r="S13" s="58"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1786,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1818,7 +1815,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1847,7 +1844,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3078,6 +3075,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3089,13 +3093,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3106,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3223,49 +3220,49 @@
       <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
@@ -3296,7 +3293,7 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
@@ -3305,14 +3302,14 @@
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3320,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="37">
         <v>44200</v>
@@ -3332,47 +3329,47 @@
         <v>866192037838156</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="40" t="s">
+      <c r="K6" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>103</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T6" s="44"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3385,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="37">
         <v>44200</v>
@@ -3402,36 +3399,36 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>65</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R7" s="38" t="s">
         <v>23</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3460,7 +3457,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3489,7 +3486,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3518,7 +3515,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3547,7 +3544,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3576,7 +3573,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3607,7 +3604,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3633,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3665,7 +3662,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3694,7 +3691,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4925,6 +4922,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4936,13 +4940,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4953,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5070,49 +5067,49 @@
       <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
@@ -5143,7 +5140,7 @@
       <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
@@ -5152,14 +5149,14 @@
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5167,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="37">
         <v>44200</v>
@@ -5184,23 +5181,23 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="K6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
@@ -5213,7 +5210,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5244,7 +5241,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5273,7 +5270,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5302,7 +5299,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5331,7 +5328,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5360,7 +5357,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5389,7 +5386,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5420,7 +5417,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5449,7 +5446,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5478,7 +5475,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5507,7 +5504,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6738,13 +6735,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6756,6 +6746,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6766,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6883,49 +6880,49 @@
       <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
@@ -6956,7 +6953,7 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
@@ -6965,14 +6962,14 @@
       </c>
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6980,35 +6977,41 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44200</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="39">
         <v>860157040235092</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>69</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>65</v>
       </c>
@@ -7020,7 +7023,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7033,9 +7036,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>82</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44200</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -7043,25 +7048,29 @@
         <v>860157040196336</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>65</v>
       </c>
@@ -7073,7 +7082,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="59"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7084,9 +7093,11 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44200</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -7098,19 +7109,35 @@
         <v>69</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="59"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7121,9 +7148,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="37"/>
+        <v>84</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44200</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -7136,22 +7165,24 @@
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="M9" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>65</v>
       </c>
@@ -7163,7 +7194,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="59"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7173,46 +7204,50 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="59">
+        <v>44200</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="61">
         <v>868183035882203</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="40" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40" t="s">
+      <c r="K10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1" t="s">
+      <c r="N10" s="58"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7223,9 +7258,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="37"/>
+        <v>86</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44200</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -7238,22 +7275,32 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="59"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7264,9 +7311,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="37"/>
+        <v>87</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44200</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -7279,20 +7328,22 @@
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>65</v>
       </c>
@@ -7304,7 +7355,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7316,34 +7367,52 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="39">
-        <v>866192037838156</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
+      <c r="B13" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="59">
+        <v>44200</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="61">
+        <v>868183035907653</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="60"/>
+      <c r="M13" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="58"/>
+      <c r="O13" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="58"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="59"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7354,31 +7423,59 @@
         <v>9</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44200</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="39">
-        <v>868345031030992</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
+        <v>866192037838156</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="59"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7389,33 +7486,53 @@
         <v>10</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44200</v>
+      </c>
       <c r="D15" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="39">
-        <v>862631034728237</v>
+        <v>868345031030992</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="I15" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="59"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7425,26 +7542,54 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44200</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="39">
+        <v>862631034728237</v>
+      </c>
       <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7563,7 +7708,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7627,7 +7772,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7936,7 +8081,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -8032,7 +8177,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8064,7 +8209,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -8096,7 +8241,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8214,7 +8359,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -8675,6 +8820,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8686,13 +8838,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
@@ -763,7 +763,22 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,21 +800,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,43 +1141,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1222,58 +1222,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1298,23 +1298,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="S10" s="58"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="S13" s="58"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3075,13 +3075,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3093,6 +3086,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3136,43 +3136,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3217,58 +3217,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3293,23 +3293,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3369,7 @@
         <v>104</v>
       </c>
       <c r="T6" s="44"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3428,7 +3428,7 @@
         <v>104</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3604,7 +3604,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4922,13 +4922,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4940,6 +4933,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4983,43 +4983,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5064,58 +5064,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
@@ -5140,23 +5140,23 @@
       <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5241,7 +5241,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5417,7 +5417,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6735,6 +6735,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6746,13 +6753,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6763,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6796,43 +6796,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6877,58 +6877,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6953,23 +6953,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="S10" s="58"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="S13" s="58"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>104</v>
       </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>104</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8820,13 +8820,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8838,6 +8831,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _TarisHN.xlsx
@@ -575,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,22 +763,7 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +786,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,43 +1144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1222,58 +1225,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1298,23 +1301,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1427,7 +1430,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1482,7 +1485,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1539,7 +1542,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1595,7 @@
       </c>
       <c r="S10" s="58"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1648,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1703,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1757,7 +1760,7 @@
       </c>
       <c r="S13" s="58"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1789,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +1818,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1847,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3075,6 +3078,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3086,13 +3096,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3136,43 +3139,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3217,58 +3220,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3293,23 +3296,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3372,7 @@
         <v>104</v>
       </c>
       <c r="T6" s="44"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3428,7 +3431,7 @@
         <v>104</v>
       </c>
       <c r="T7" s="44"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3457,7 +3460,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3486,7 +3489,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3515,7 +3518,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3547,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3573,7 +3576,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3604,7 +3607,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3633,7 +3636,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3662,7 +3665,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3694,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4922,6 +4925,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4933,13 +4943,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4983,43 +4986,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5064,58 +5067,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
@@ -5140,23 +5143,23 @@
       <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,7 +5213,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5241,7 +5244,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5270,7 +5273,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5299,7 +5302,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5328,7 +5331,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5357,7 +5360,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5386,7 +5389,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5417,7 +5420,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5446,7 +5449,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5475,7 +5478,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5504,7 +5507,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6735,13 +6738,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6753,6 +6749,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6763,8 +6766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6796,43 +6799,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6877,58 +6880,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6953,23 +6956,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6980,7 +6983,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
@@ -7023,7 +7026,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7039,7 +7042,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
@@ -7082,7 +7085,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
@@ -7137,7 +7140,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
@@ -7194,7 +7197,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7204,50 +7207,50 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="59">
-        <v>44200</v>
-      </c>
-      <c r="D10" s="60" t="s">
+      <c r="C10" s="37">
+        <v>44336</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="76">
         <v>868183035882203</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="58" t="s">
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="Q10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="60" t="s">
+      <c r="R10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="58"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
@@ -7300,7 +7303,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
@@ -7355,7 +7358,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7371,7 +7374,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="59">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>44</v>
@@ -7412,7 +7415,7 @@
       </c>
       <c r="S13" s="58"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>62</v>
@@ -7475,7 +7478,7 @@
         <v>104</v>
       </c>
       <c r="T14" s="44"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>62</v>
@@ -7532,7 +7535,7 @@
         <v>104</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7546,7 +7549,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="37">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>64</v>
@@ -7589,7 +7592,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8820,6 +8823,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8831,13 +8841,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
